--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_MCPS.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>79.31964667960179</v>
+        <v>72.71264502649049</v>
       </c>
       <c r="C2">
-        <v>73.34379173943258</v>
+        <v>75.55286455530215</v>
       </c>
       <c r="D2">
-        <v>79.81661225957203</v>
+        <v>65.74666527964574</v>
       </c>
       <c r="E2">
-        <v>73.08090428032943</v>
+        <v>78.10435175080208</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>99.52253392159793</v>
+        <v>95.43673968051225</v>
       </c>
       <c r="C3">
-        <v>99.22531048700142</v>
+        <v>94.55776261496382</v>
       </c>
       <c r="D3">
-        <v>99.37320723352478</v>
+        <v>95.41862177802383</v>
       </c>
       <c r="E3">
-        <v>99.28388388084439</v>
+        <v>95.1653796556581</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.28068551755452</v>
+        <v>99.38697011759064</v>
       </c>
       <c r="C4">
-        <v>99.20950415613649</v>
+        <v>99.29621816665176</v>
       </c>
       <c r="D4">
-        <v>99.16787046294834</v>
+        <v>99.37212612910128</v>
       </c>
       <c r="E4">
-        <v>99.28074550010145</v>
+        <v>99.39730686782819</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.74215244897813</v>
+        <v>98.90598092794073</v>
       </c>
       <c r="C5">
-        <v>98.79932943337515</v>
+        <v>98.91215142635062</v>
       </c>
       <c r="D5">
-        <v>98.78950244379539</v>
+        <v>98.88695498066944</v>
       </c>
       <c r="E5">
-        <v>98.7565334560708</v>
+        <v>98.86516365955153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.3475300278465</v>
+        <v>98.4910344462462</v>
       </c>
       <c r="C6">
-        <v>98.19036898461468</v>
+        <v>98.41127507373085</v>
       </c>
       <c r="D6">
-        <v>98.27341455641093</v>
+        <v>98.42747415882125</v>
       </c>
       <c r="E6">
-        <v>98.3155017356214</v>
+        <v>98.36970908952426</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.39602324440297</v>
+        <v>97.43989503442732</v>
       </c>
       <c r="C7">
-        <v>97.38510059998924</v>
+        <v>97.44110361208342</v>
       </c>
       <c r="D7">
-        <v>97.33352315752622</v>
+        <v>97.48030213697916</v>
       </c>
       <c r="E7">
-        <v>97.31430677832485</v>
+        <v>97.45596132465828</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>96.02270691842068</v>
+        <v>96.07250952638516</v>
       </c>
       <c r="C8">
-        <v>95.96865626047128</v>
+        <v>96.0372942514505</v>
       </c>
       <c r="D8">
-        <v>95.99106926440305</v>
+        <v>96.03624917568071</v>
       </c>
       <c r="E8">
-        <v>95.8724710861368</v>
+        <v>95.99658762842688</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_MCPS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.43989503442732</v>
+        <v>97.85838074038192</v>
       </c>
       <c r="C7">
-        <v>97.44110361208342</v>
+        <v>97.94477153128256</v>
       </c>
       <c r="D7">
-        <v>97.48030213697916</v>
+        <v>97.97749483048452</v>
       </c>
       <c r="E7">
-        <v>97.45596132465828</v>
+        <v>97.9362554573154</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>97.43989503442732</v>
+      </c>
+      <c r="C8">
+        <v>97.44110361208342</v>
+      </c>
+      <c r="D8">
+        <v>97.48030213697916</v>
+      </c>
+      <c r="E8">
+        <v>97.45596132465828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>96.07250952638516</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>96.0372942514505</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>96.03624917568071</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>95.99658762842688</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_MCPS.xlsx
@@ -432,16 +432,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>72.71264502649049</v>
+        <v>72.59633679618487</v>
       </c>
       <c r="C2">
-        <v>75.55286455530215</v>
+        <v>75.4195437681842</v>
       </c>
       <c r="D2">
-        <v>65.74666527964574</v>
+        <v>65.68624930906326</v>
       </c>
       <c r="E2">
-        <v>78.10435175080208</v>
+        <v>77.98416199942649</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,16 +449,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>95.43673968051225</v>
+        <v>95.43563379966095</v>
       </c>
       <c r="C3">
-        <v>94.55776261496382</v>
+        <v>94.57003139809234</v>
       </c>
       <c r="D3">
-        <v>95.41862177802383</v>
+        <v>95.41026809330305</v>
       </c>
       <c r="E3">
-        <v>95.1653796556581</v>
+        <v>95.18253402370901</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,16 +466,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.38697011759064</v>
+        <v>99.38626481381891</v>
       </c>
       <c r="C4">
-        <v>99.29621816665176</v>
+        <v>99.2978203857076</v>
       </c>
       <c r="D4">
-        <v>99.37212612910128</v>
+        <v>99.37140167670691</v>
       </c>
       <c r="E4">
-        <v>99.39730686782819</v>
+        <v>99.39704287525669</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,16 +483,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.90598092794073</v>
+        <v>98.90471815478253</v>
       </c>
       <c r="C5">
-        <v>98.91215142635062</v>
+        <v>98.91138032066465</v>
       </c>
       <c r="D5">
-        <v>98.88695498066944</v>
+        <v>98.8905065767255</v>
       </c>
       <c r="E5">
-        <v>98.86516365955153</v>
+        <v>98.8626901422292</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,16 +500,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.4910344462462</v>
+        <v>98.49158790473874</v>
       </c>
       <c r="C6">
-        <v>98.41127507373085</v>
+        <v>98.41221242544741</v>
       </c>
       <c r="D6">
-        <v>98.42747415882125</v>
+        <v>98.4250015907633</v>
       </c>
       <c r="E6">
-        <v>98.36970908952426</v>
+        <v>98.3711814400055</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.85838074038192</v>
+        <v>97.9066693623124</v>
       </c>
       <c r="C7">
-        <v>97.94477153128256</v>
+        <v>97.93034118333546</v>
       </c>
       <c r="D7">
-        <v>97.97749483048452</v>
+        <v>97.9708024524988</v>
       </c>
       <c r="E7">
-        <v>97.9362554573154</v>
+        <v>97.93196603237055</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.43989503442732</v>
+        <v>97.44840259030759</v>
       </c>
       <c r="C8">
-        <v>97.44110361208342</v>
+        <v>97.40936359917099</v>
       </c>
       <c r="D8">
-        <v>97.48030213697916</v>
+        <v>97.46402796050199</v>
       </c>
       <c r="E8">
-        <v>97.45596132465828</v>
+        <v>97.41500342746428</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>96.07250952638516</v>
+        <v>96.06184477345799</v>
       </c>
       <c r="C9">
-        <v>96.0372942514505</v>
+        <v>96.0611824867761</v>
       </c>
       <c r="D9">
-        <v>96.03624917568071</v>
+        <v>96.04396408512935</v>
       </c>
       <c r="E9">
-        <v>95.99658762842688</v>
+        <v>96.09274653964862</v>
       </c>
     </row>
   </sheetData>
